--- a/Data/EC/NIT-9012900517.xlsx
+++ b/Data/EC/NIT-9012900517.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BDE5330-589F-4C50-B1B0-8575FA2105F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AE739FC-FB57-4C0C-B3C2-E03313E57B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{077C9B42-AC4C-4FA1-8EEC-55943208BB88}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{59F25D13-C489-4C1B-B38B-56883EC66347}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,27 +71,33 @@
     <t>FERNANDO MADERO MARRUGO</t>
   </si>
   <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>1002392685</t>
+  </si>
+  <si>
+    <t>ORLEYS CABARCAS MARTINEZ</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
     <t>1001967475</t>
   </si>
   <si>
@@ -110,12 +116,6 @@
     <t>CRISTIAN BALDOVINO DOMINGUEZ</t>
   </si>
   <si>
-    <t>1002392685</t>
-  </si>
-  <si>
-    <t>ORLEYS CABARCAS MARTINEZ</t>
-  </si>
-  <si>
     <t>1002392684</t>
   </si>
   <si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>DAYANA SHAQUIRA DORIA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -242,7 +245,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -255,9 +260,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -457,23 +460,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,10 +504,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,7 +560,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90F53DDE-BE26-F3CF-8600-AFAD0704E46A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53FCCD06-9204-0269-F7FD-0134506A19FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,8 +911,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE1E551-147D-4DAE-945F-175F492B389A}">
-  <dimension ref="B2:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8A77AA-9D79-43E8-9134-053E615742D0}">
+  <dimension ref="B2:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -933,7 +936,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -978,7 +981,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1010,12 +1013,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>880198</v>
+        <v>1416898</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1026,17 +1029,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5">
         <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1063,13 +1066,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1086,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>51246</v>
       </c>
       <c r="G16" s="18">
         <v>1423500</v>
@@ -1100,19 +1103,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>7552</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>1416000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1129,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>56940</v>
@@ -1152,7 +1155,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>56940</v>
@@ -1175,7 +1178,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>56940</v>
@@ -1198,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>56940</v>
@@ -1221,10 +1224,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>51246</v>
+        <v>56940</v>
       </c>
       <c r="G22" s="18">
         <v>1423500</v>
@@ -1238,19 +1241,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F23" s="18">
-        <v>60000</v>
+        <v>56940</v>
       </c>
       <c r="G23" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1267,13 +1270,13 @@
         <v>21</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>56940</v>
+        <v>60000</v>
       </c>
       <c r="G24" s="18">
-        <v>738000</v>
+        <v>1500000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1290,7 +1293,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>56940</v>
@@ -1313,13 +1316,13 @@
         <v>25</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>7552</v>
+        <v>56940</v>
       </c>
       <c r="G26" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1336,7 +1339,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
         <v>60000</v>
@@ -1359,7 +1362,7 @@
         <v>29</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>56940</v>
@@ -1382,7 +1385,7 @@
         <v>31</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
         <v>56940</v>
@@ -1405,7 +1408,7 @@
         <v>33</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
         <v>60000</v>
@@ -1418,56 +1421,263 @@
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="24">
+      <c r="E31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="18">
         <v>72000</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="18">
         <v>1800000</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="24">
+        <v>72000</v>
+      </c>
+      <c r="G40" s="24">
+        <v>1800000</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="H45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="C46" s="32"/>
+      <c r="H46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H45:J45"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9012900517.xlsx
+++ b/Data/EC/NIT-9012900517.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AE739FC-FB57-4C0C-B3C2-E03313E57B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59549B17-99DF-4A77-AF0C-B0E9AE026FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{59F25D13-C489-4C1B-B38B-56883EC66347}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B398EA50-5699-447E-BE12-B378C4D469DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="49">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -245,9 +248,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -260,7 +261,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -454,29 +457,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,19 +498,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,7 +569,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53FCCD06-9204-0269-F7FD-0134506A19FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1603F94-2C0B-B8DE-E8E5-0E20B6F48D3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,8 +920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8A77AA-9D79-43E8-9134-053E615742D0}">
-  <dimension ref="B2:J46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990EBCED-0597-4346-AE06-77E4A23D12D6}">
+  <dimension ref="B2:J55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -934,57 +943,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1000,7 +1009,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9012900517</v>
       </c>
@@ -1013,12 +1022,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>1416898</v>
+        <v>1953598</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1029,17 +1038,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5">
         <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1066,13 +1075,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1085,18 +1094,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>51246</v>
       </c>
-      <c r="G16" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1108,18 +1117,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>7552</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1416000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1131,18 +1140,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>56940</v>
       </c>
-      <c r="G18" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="G18" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1154,18 +1163,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>56940</v>
       </c>
-      <c r="G19" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1177,18 +1186,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>56940</v>
       </c>
-      <c r="G20" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1200,18 +1209,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>56940</v>
       </c>
-      <c r="G21" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="G21" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1223,18 +1232,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>56940</v>
       </c>
-      <c r="G22" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="G22" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1246,18 +1255,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>56940</v>
       </c>
-      <c r="G23" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="G23" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1269,18 +1278,18 @@
       <c r="D24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>60000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1500000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1292,18 +1301,18 @@
       <c r="D25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>56940</v>
       </c>
-      <c r="G25" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="G25" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1315,18 +1324,18 @@
       <c r="D26" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>56940</v>
       </c>
-      <c r="G26" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="G26" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1338,18 +1347,18 @@
       <c r="D27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>60000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1500000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1361,18 +1370,18 @@
       <c r="D28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>56940</v>
       </c>
-      <c r="G28" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="G28" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1384,18 +1393,18 @@
       <c r="D29" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>56940</v>
       </c>
-      <c r="G29" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="G29" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1407,18 +1416,18 @@
       <c r="D30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>60000</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>1500000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1430,18 +1439,18 @@
       <c r="D31" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>72000</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>1800000</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1453,18 +1462,18 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>56940</v>
       </c>
-      <c r="G32" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="G32" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1476,18 +1485,18 @@
       <c r="D33" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>60000</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>1500000</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1499,18 +1508,18 @@
       <c r="D34" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>56940</v>
       </c>
-      <c r="G34" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="G34" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1522,18 +1531,18 @@
       <c r="D35" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>56940</v>
       </c>
-      <c r="G35" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="G35" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1545,18 +1554,18 @@
       <c r="D36" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>60000</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>1500000</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1568,18 +1577,18 @@
       <c r="D37" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>56940</v>
       </c>
-      <c r="G37" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="G37" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1591,18 +1600,18 @@
       <c r="D38" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>56940</v>
       </c>
-      <c r="G38" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="G38" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1614,70 +1623,277 @@
       <c r="D39" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>60000</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="19">
         <v>1500000</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="22" t="s">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="19">
         <v>72000</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="19">
         <v>1800000</v>
       </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G42" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G48" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="26">
+        <v>72000</v>
+      </c>
+      <c r="G49" s="26">
+        <v>1800000</v>
+      </c>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="34"/>
+      <c r="H54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="H45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="H46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="C55" s="34"/>
+      <c r="H55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H54:J54"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
